--- a/biology/Botanique/Patis_(plante)/Patis_(plante).xlsx
+++ b/biology/Botanique/Patis_(plante)/Patis_(plante).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Patis  est un genre de plantes monocotylédones de la famille des Poaceae (graminées), sous-famille des Pooideae, originaire d'Eurasie et d'Amérique du Nord, qui comprend  trois espèces.
-Ce genre a été créé en 2011 à la suite d'étude phylogénétiques qui ont conduit à extraire trois espèces du complexe Oryzopsis / Piptatherum pour rétablir ce genre initialement décrit en 1942, à modifier la circonscription du genre Piptatherum et à créer un nouveau genre, Piptatheropsis[2].
+Ce genre a été créé en 2011 à la suite d'étude phylogénétiques qui ont conduit à extraire trois espèces du complexe Oryzopsis / Piptatherum pour rétablir ce genre initialement décrit en 1942, à modifier la circonscription du genre Piptatherum et à créer un nouveau genre, Piptatheropsis.
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon Tropicos                                           (4 juillet 2017)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon Tropicos                                           (4 juillet 2017) :
 Patis coreana (Honda) Ohwi
 Patis obtusa (Stapf) Romasch., P.M. Peterson &amp; Soreng
 Patis racemosa (Sm.) Romasch., P.M. Peterson &amp; Soreng</t>
